--- a/medicine/Psychotrope/Bernard,_ni_Dieu_ni_chaussettes/Bernard,_ni_Dieu_ni_chaussettes.xlsx
+++ b/medicine/Psychotrope/Bernard,_ni_Dieu_ni_chaussettes/Bernard,_ni_Dieu_ni_chaussettes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard, ni Dieu ni chaussettes est un documentaire français réalisé par Pascal Boucher et sorti en 2010.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Portrait du paysan libertaire Bernard Gainier, de Meung-sur-Loire, « gardien de la mémoire » du poète Gaston Couté.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Bernard, ni Dieu ni chaussettes
 Réalisation :	Pascal Boucher
@@ -578,9 +594,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bernard Gainier[1]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bernard Gainier</t>
         </is>
       </c>
     </row>
@@ -608,10 +626,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>3ème prix du jury au Festival international du film documentaire sur la ruralité de Ville-sur-Yron 2010
-Prix du public au festival Aux écrans du réel 2010 « Concours 1er Doc »[2]</t>
+Prix du public au festival Aux écrans du réel 2010 « Concours 1er Doc »</t>
         </is>
       </c>
     </row>
@@ -639,9 +659,11 @@
           <t>Bernard Gainier et Le ciel peut attendre</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après Bernard, ni dieu ni chaussettes, le réalisateur Pascal Boucher a retrouvé Bernard Gainier, dix ans plus tard, pour un nouveau film, Le ciel peut attendre[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après Bernard, ni dieu ni chaussettes, le réalisateur Pascal Boucher a retrouvé Bernard Gainier, dix ans plus tard, pour un nouveau film, Le ciel peut attendre.
 </t>
         </is>
       </c>
